--- a/ME419_DCLab.xlsx
+++ b/ME419_DCLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Spring '24/Controls Git/ME419-Ex2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FBF3D94-4043-7341-8557-3733736BD38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5D051-2C7D-0743-B6E2-A50554644299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="1660" windowWidth="20900" windowHeight="15940" xr2:uid="{73B04151-C54D-3541-9CFC-B4EDDFF15851}"/>
+    <workbookView xWindow="1240" yWindow="1540" windowWidth="29000" windowHeight="15940" xr2:uid="{73B04151-C54D-3541-9CFC-B4EDDFF15851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2962,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2691AB2-448C-E54E-84F8-136B65DFDE06}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="159" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2987,7 +2994,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3007,7 +3014,7 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3027,7 +3034,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3047,7 +3054,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3067,7 +3074,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +3094,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3110,7 +3117,7 @@
       <c r="F8">
         <v>2.56</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -3130,7 +3137,7 @@
       <c r="F9">
         <v>3.62</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -3150,7 +3157,7 @@
       <c r="F10">
         <v>5.15</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.35</v>
       </c>
     </row>
@@ -3170,7 +3177,7 @@
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -3190,7 +3197,7 @@
       <c r="F12">
         <v>9.01</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.6</v>
       </c>
     </row>
@@ -3210,7 +3217,7 @@
       <c r="F13">
         <v>12.6</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.8</v>
       </c>
     </row>
@@ -3230,7 +3237,7 @@
       <c r="F14">
         <v>15.7</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3250,7 +3257,7 @@
       <c r="F15">
         <v>18.850000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1.2</v>
       </c>
     </row>

--- a/ME419_DCLab.xlsx
+++ b/ME419_DCLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Spring '24/Controls Git/ME419-Ex2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5D051-2C7D-0743-B6E2-A50554644299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D5A6B-2E55-8B49-864B-AC9F43F31556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1540" windowWidth="29000" windowHeight="15940" xr2:uid="{73B04151-C54D-3541-9CFC-B4EDDFF15851}"/>
   </bookViews>
@@ -1417,6 +1417,415 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14306233595800524"/>
+                  <c:y val="7.045421405657626E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BA5-BF4F-A4D9-A2B3F7553B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="310144"/>
+        <c:axId val="2081127343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="310144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081127343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2081127343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1497,6 +1906,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2014,6 +2463,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2642,6 +3607,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293D4B2D-B06B-B414-701A-E2D10C13B2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2969,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2691AB2-448C-E54E-84F8-136B65DFDE06}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ME419_DCLab.xlsx
+++ b/ME419_DCLab.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Spring '24/Controls Git/ME419-Ex2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D5A6B-2E55-8B49-864B-AC9F43F31556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C705CC-427A-1F4E-A3F8-862B48589328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1540" windowWidth="29000" windowHeight="15940" xr2:uid="{73B04151-C54D-3541-9CFC-B4EDDFF15851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1589,44 +1589,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:f>Sheet1!$C$7:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-2.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-2.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.8</c:v>
+                  <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4</c:v>
+                  <c:v>-3.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.75</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.5</c:v>
+                  <c:v>-6.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.8</c:v>
+                  <c:v>-7.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>-8.6</c:v>
                 </c:pt>
               </c:numCache>

--- a/ME419_DCLab.xlsx
+++ b/ME419_DCLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Spring '24/Controls Git/ME419-Ex2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C705CC-427A-1F4E-A3F8-862B48589328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163CE37-5A60-F541-9240-2B1E8E723EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1540" windowWidth="29000" windowHeight="15940" xr2:uid="{73B04151-C54D-3541-9CFC-B4EDDFF15851}"/>
+    <workbookView xWindow="820" yWindow="-20700" windowWidth="27240" windowHeight="15940" xr2:uid="{73B04151-C54D-3541-9CFC-B4EDDFF15851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>(volts)</t>
   </si>
   <si>
-    <t>(rpm)x1000</t>
-  </si>
-  <si>
     <t>2.95 to 1 rot</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   <si>
     <t>*Where starts spinning</t>
   </si>
+  <si>
+    <t>(rpm)</t>
+  </si>
 </sst>
 </file>
 
@@ -96,18 +96,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,7 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +151,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Determining Motor Gain,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Km</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -244,6 +271,47 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16049389811674999"/>
+                  <c:y val="-0.32913206736193606"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Linear </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -194.0x - 123.27</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -338,28 +406,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,10 +483,45 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12952799796346526"/>
-                  <c:y val="-3.2660396617089534E-2"/>
+                  <c:x val="-3.6499224093338695E-2"/>
+                  <c:y val="-0.35973596079110276"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Non Linear</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -224.1x - 251.37</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -489,28 +592,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +809,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Wm (Motor Speed)  [rpm*1000] </a:t>
+                  <a:t>Wm (Motor Speed)  [rpm] </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100"/>
               </a:p>
@@ -902,6 +1005,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power Amplifier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Gain, Ka</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -985,6 +1118,41 @@
                   <c:y val="-0.28374635462233888"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -5.2555x + 0.0072</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Ka = -5.2555</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1165,7 +1333,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Vamp</a:t>
+                  <a:t>Amplifier Voltage, Vamp (Volts)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1282,7 +1450,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>VA</a:t>
+                  <a:t>Motor Voltage, VA (Volts)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1291,8 +1459,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9444444444444445E-2"/>
-              <c:y val="0.49591426071741035"/>
+              <c:x val="1.9444482133345476E-2"/>
+              <c:y val="0.28654376026474104"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1432,6 +1600,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Knob Gain, K_knob</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1512,6 +1705,41 @@
                   <c:y val="7.045421405657626E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = -0.0514x + 0.9613</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>K_knob = -0.0514</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1589,35 +1817,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$15</c:f>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-1.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>-2.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>-2.75</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>-3.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>-3.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>-6.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>-7.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>-8.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1662,6 +1899,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Motor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Shaft Position, Theta_IN (degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1724,6 +2021,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> input by knob, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V_IN (Voltage)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0325816930185063E-2"/>
+              <c:y val="0.12273065842476338"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3961,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2691AB2-448C-E54E-84F8-136B65DFDE06}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4007,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4092,7 +4460,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -4110,7 +4478,8 @@
         <v>2.56</v>
       </c>
       <c r="G8" s="1">
-        <v>0.15</v>
+        <f>0.15*1000</f>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4130,7 +4499,8 @@
         <v>3.62</v>
       </c>
       <c r="G9" s="1">
-        <v>0.2</v>
+        <f>0.2*1000</f>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4150,7 +4520,8 @@
         <v>5.15</v>
       </c>
       <c r="G10" s="1">
-        <v>0.35</v>
+        <f>0.35*1000</f>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4170,7 +4541,8 @@
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <v>0.4</v>
+        <f>0.4*1000</f>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4190,7 +4562,8 @@
         <v>9.01</v>
       </c>
       <c r="G12" s="1">
-        <v>0.6</v>
+        <f>1000*0.6</f>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4210,7 +4583,8 @@
         <v>12.6</v>
       </c>
       <c r="G13" s="1">
-        <v>0.8</v>
+        <f>1000*0.8</f>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4230,7 +4604,8 @@
         <v>15.7</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <f>1000*1</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4250,32 +4625,33 @@
         <v>18.850000000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>1.2</v>
+        <f>1000*1.2</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
